--- a/src/teensy_module/ConnectionPins.xlsx
+++ b/src/teensy_module/ConnectionPins.xlsx
@@ -329,13 +329,16 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -18861,7 +18864,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="1"/>
@@ -18875,10 +18878,10 @@
       <c r="N7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -18888,10 +18891,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1"/>
@@ -18910,7 +18913,7 @@
       <c r="N8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -18950,16 +18953,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>38</v>
@@ -18984,16 +18987,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="K11" s="1">
@@ -19005,7 +19008,7 @@
       <c r="M11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="R11" s="1"/>
@@ -19035,7 +19038,7 @@
         <v>46</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="R12" s="1"/>
@@ -19098,10 +19101,10 @@
       <c r="M14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O14" s="3"/>
+      <c r="O14" s="4"/>
       <c r="U14" s="1" t="s">
         <v>53</v>
       </c>
@@ -19221,13 +19224,13 @@
       <c r="B19" s="1">
         <v>26</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
         <v>65</v>
@@ -19240,10 +19243,10 @@
         <v>66</v>
       </c>
       <c r="M19" s="1"/>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="3"/>
+      <c r="O19" s="4"/>
       <c r="T19" s="1" t="s">
         <v>67</v>
       </c>
@@ -19255,7 +19258,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="1"/>
@@ -19282,7 +19285,7 @@
       <c r="B21" s="1">
         <v>28</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G21" s="1"/>
@@ -19313,7 +19316,7 @@
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G22" s="1"/>
@@ -19338,7 +19341,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="2"/>
@@ -19367,7 +19370,7 @@
       <c r="F24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="1"/>
@@ -19379,7 +19382,7 @@
       </c>
       <c r="M24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="Q24" s="1" t="s">
@@ -19416,7 +19419,7 @@
       </c>
       <c r="M25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="3" t="s">
+      <c r="P25" s="4" t="s">
         <v>34</v>
       </c>
       <c r="Q25" s="1" t="s">
@@ -21810,7 +21813,7 @@
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="5">
         <f t="shared" si="8"/>
         <v>22.2001953125</v>
       </c>
